--- a/data/hotels_by_city/Houston/Houston_shard_614.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_614.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d244389-Reviews-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-Sugarland.h1029963.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531687947243&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=60193878-9994-4567-a2a0-88ac673d7cab&amp;mctc=9&amp;exp_dp=63.99&amp;exp_ts=1531687947752&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,276 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r580607918-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>244389</t>
+  </si>
+  <si>
+    <t>580607918</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Rating: Half a star</t>
+  </si>
+  <si>
+    <t>Saggy beds/cheap hard pillows, smelly discolored towels and sheets, cockroaches and ants, obvious drugs and hookers activity (police were there often) weak management and front desk staff, surrounding landscaping was filthy and never cleaned up.  Room does have a kitchenette... and there is also close-by access to restaurants: Buffet place, Mexican food place, and a Hooters. Cheapest price, but this place is surrounded by lots of other hotels. Recommend spending another few bucks and staying elsewhere. You'll be glad you did.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r527902294-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>527902294</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>I have been staying here for last three years.Off and on for extended period of time. Staff is amazing they accommodate all your need v friendly and go out of their way to do it.It's very convenient to freeway 59/90 and Beltway 8I would recommend it to experience its hospitality.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r526576737-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>526576737</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Pure Filthiness</t>
+  </si>
+  <si>
+    <t>I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open...I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member  at Studio 6 Houston Southwest - Sugarland, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open...I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r215612974-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>215612974</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms, terrible service</t>
+  </si>
+  <si>
+    <t>As the title suggests, the room we had was a nice room, clean and the smell was even not bad. However the people who run this place could use a lesson in class and professionalism. The staff was rude and unhelpful, and I could never get the manager on the line. I was going to stay there for a month, but left for a better room and much better customer service.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r210085202-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>210085202</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>No problems here! Good night sleep.</t>
+  </si>
+  <si>
+    <t>I spent a night here when I was I was driving across country and could simply not drive any longer. I checked in late after the office was closed but rang the bell and was greeted by a pleasant attendant. The room was an average efficiency. Clean with a comfortable bed that seemed pretty new and was perfectly comfortable. No complaints here! I was surprised to read some of these reviews since my experience was just as expected. It's no W Hotel, but it also doesn't break the bank!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r147274859-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147274859</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Basically it is what you should expect for what you pay. The room could have been cleaner. But when I travel I always bring my own linens and cleaner for the bathroom. It had a small kitchenette area that could come in handy for a person staying for a while. I was there for a night and the people were nice at the desk. The area worked well for me. We had friends in Richmond, and wanted to have fun in the galleria area. It was in the middle and the area was not sketchy. If you want something a little nicer, pay the extra 30 bucks a night for something more decent. Its a cheap motel. Do not expect a 5 star. My only complaint would be the smell coming from the a/c. Smelled of mildew. It was not pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Basically it is what you should expect for what you pay. The room could have been cleaner. But when I travel I always bring my own linens and cleaner for the bathroom. It had a small kitchenette area that could come in handy for a person staying for a while. I was there for a night and the people were nice at the desk. The area worked well for me. We had friends in Richmond, and wanted to have fun in the galleria area. It was in the middle and the area was not sketchy. If you want something a little nicer, pay the extra 30 bucks a night for something more decent. Its a cheap motel. Do not expect a 5 star. My only complaint would be the smell coming from the a/c. Smelled of mildew. It was not pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r124918247-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>124918247</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Could no pay me to say there</t>
+  </si>
+  <si>
+    <t>I had previously posted a review about bed bugs. It was removed why I do not know. Just check their records for room 306 Terminex was there and corporate confirmed that bed bugs were present. They moved me to another room 222 which was out dated. It must be the room where they send you when there is an issue. They were supposed to reimburse me for my brand new pillows from Bed Bath &amp; Beyond. The bad part was the General Manager came to my room on the last day of check out. I had paid for a month in full. They said I was not welcome to stay there anymore due to the complaint. He was Very Threatening when I shut the door cause I said that I had to get ready for class. He forced his way back into the room before the door shut. The look on his eyes was pure evil. I was kinda afraid he was gonna strike me. I think he thought real fast he was about to make a mistake. So i left the next day. If the situation was that bad why did he wait tto the last day of my stay. He wanted to make sure I would never recieve a refund. That place just not safe to stay at. Its obvious that there is some sort of illegal activity going on at night. There is way too much traffic...I had previously posted a review about bed bugs. It was removed why I do not know. Just check their records for room 306 Terminex was there and corporate confirmed that bed bugs were present. They moved me to another room 222 which was out dated. It must be the room where they send you when there is an issue. They were supposed to reimburse me for my brand new pillows from Bed Bath &amp; Beyond. The bad part was the General Manager came to my room on the last day of check out. I had paid for a month in full. They said I was not welcome to stay there anymore due to the complaint. He was Very Threatening when I shut the door cause I said that I had to get ready for class. He forced his way back into the room before the door shut. The look on his eyes was pure evil. I was kinda afraid he was gonna strike me. I think he thought real fast he was about to make a mistake. So i left the next day. If the situation was that bad why did he wait tto the last day of my stay. He wanted to make sure I would never recieve a refund. That place just not safe to stay at. Its obvious that there is some sort of illegal activity going on at night. There is way too much traffic coming in and out of certain rooms. Its obviousMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I had previously posted a review about bed bugs. It was removed why I do not know. Just check their records for room 306 Terminex was there and corporate confirmed that bed bugs were present. They moved me to another room 222 which was out dated. It must be the room where they send you when there is an issue. They were supposed to reimburse me for my brand new pillows from Bed Bath &amp; Beyond. The bad part was the General Manager came to my room on the last day of check out. I had paid for a month in full. They said I was not welcome to stay there anymore due to the complaint. He was Very Threatening when I shut the door cause I said that I had to get ready for class. He forced his way back into the room before the door shut. The look on his eyes was pure evil. I was kinda afraid he was gonna strike me. I think he thought real fast he was about to make a mistake. So i left the next day. If the situation was that bad why did he wait tto the last day of my stay. He wanted to make sure I would never recieve a refund. That place just not safe to stay at. Its obvious that there is some sort of illegal activity going on at night. There is way too much traffic...I had previously posted a review about bed bugs. It was removed why I do not know. Just check their records for room 306 Terminex was there and corporate confirmed that bed bugs were present. They moved me to another room 222 which was out dated. It must be the room where they send you when there is an issue. They were supposed to reimburse me for my brand new pillows from Bed Bath &amp; Beyond. The bad part was the General Manager came to my room on the last day of check out. I had paid for a month in full. They said I was not welcome to stay there anymore due to the complaint. He was Very Threatening when I shut the door cause I said that I had to get ready for class. He forced his way back into the room before the door shut. The look on his eyes was pure evil. I was kinda afraid he was gonna strike me. I think he thought real fast he was about to make a mistake. So i left the next day. If the situation was that bad why did he wait tto the last day of my stay. He wanted to make sure I would never recieve a refund. That place just not safe to stay at. Its obvious that there is some sort of illegal activity going on at night. There is way too much traffic coming in and out of certain rooms. Its obviousMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r121531300-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>121531300</t>
+  </si>
+  <si>
+    <t>12/08/2011</t>
+  </si>
+  <si>
+    <t>Scared to stay here!</t>
+  </si>
+  <si>
+    <t>The motel was reasonably clean and the grounds were attractive. The "people" hanging around the motel when we checked in made us very uncomfortable.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r121244865-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>121244865</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>Ogechi</t>
+  </si>
+  <si>
+    <t>was really nice rooms  but the burners were very slow</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r116997647-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>116997647</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>will stay here again!</t>
+  </si>
+  <si>
+    <t>The room we stayed in was very clean. Price was great. Employees were very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r106159960-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>106159960</t>
+  </si>
+  <si>
+    <t>04/29/2011</t>
+  </si>
+  <si>
+    <t>It is Ok</t>
+  </si>
+  <si>
+    <t>The area is off the freeway but ok with me, the exterior is not well kept, the non-smoking room I requested is merely a smoking room with the ashtray turned upside down showing a no -smoking symbol. The room reeks with stale smoke, when I got home and unpacked my clothes smelled bad they had absorbed the room odor. The room had a comfortable bed, kitchette and but for the smell it was worth the price. I felt safe, mostly contruction workers etc, the guy next door kept coming in and out all night but that is not the hotels fault. It was ok for the price.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r90350345-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>90350345</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>OMG is all I can say.  The hotel manager should be ashamed of him/her self.  The outside of the hotel will trick you.  But be aware it is not what it looks like.  As soon as I opened the door I smelled a mixture of a thousand things and none were a pleasing smell.  I don't know how you can miss that someone took care of their business and forgot to flush twice but apparently the cleaning person did because I had to flush the toilet behind the previous person.  The room looked like it was about to cave in with a bed from 1976 when I was born.  I was scared to sit on the bed less known sleep in it.  Thank goodness the gentlemen at the front desk was polite enough to admit that its a shame that the rooms are in the condition they are in.  He refunded me my money back and I went next door to the Laquinta with a stomach ache.  By the way don't stay there either, they are next on my list.  I could not really eat for the remainder of the weekend.  Lets just say I would rather sleep on a pissy bus stop then to ever come back to this place and the answer to the next question.  NO I will not recommend this hotel to anyone...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>OMG is all I can say.  The hotel manager should be ashamed of him/her self.  The outside of the hotel will trick you.  But be aware it is not what it looks like.  As soon as I opened the door I smelled a mixture of a thousand things and none were a pleasing smell.  I don't know how you can miss that someone took care of their business and forgot to flush twice but apparently the cleaning person did because I had to flush the toilet behind the previous person.  The room looked like it was about to cave in with a bed from 1976 when I was born.  I was scared to sit on the bed less known sleep in it.  Thank goodness the gentlemen at the front desk was polite enough to admit that its a shame that the rooms are in the condition they are in.  He refunded me my money back and I went next door to the Laquinta with a stomach ache.  By the way don't stay there either, they are next on my list.  I could not really eat for the remainder of the weekend.  Lets just say I would rather sleep on a pissy bus stop then to ever come back to this place and the answer to the next question.  NO I will not recommend this hotel to anyone...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r10921288-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>10921288</t>
+  </si>
+  <si>
+    <t>11/19/2007</t>
+  </si>
+  <si>
+    <t>Never again.....even if you paid me</t>
+  </si>
+  <si>
+    <t>We arrived after 1 pm to check in. The employee at the counter had to leave twice to find out if our room had been cleaned  and ready to be occupied. When he finally shows back up, he anwers the ringing phone to assist the caller. We were so angry. He should have put the caller on hold to help the paying customers he had in front of them. After getting our keys, we arrive at the room to get knocked down by the smell of mold &amp; mildew. Yes, I know this is humid Houston but the odor was way beyond that. The stove was nasty. The towels were rough.  If the bathroom door was open, you couldn't get near the shower. Two people could not use the decent sized bathroom at the same time. We tried to get a room at the Comfort Inn next door but they were booked. I came home and disinfected our bags &amp; washed the clean clothing that we didn't wear. Never again.........ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>We arrived after 1 pm to check in. The employee at the counter had to leave twice to find out if our room had been cleaned  and ready to be occupied. When he finally shows back up, he anwers the ringing phone to assist the caller. We were so angry. He should have put the caller on hold to help the paying customers he had in front of them. After getting our keys, we arrive at the room to get knocked down by the smell of mold &amp; mildew. Yes, I know this is humid Houston but the odor was way beyond that. The stove was nasty. The towels were rough.  If the bathroom door was open, you couldn't get near the shower. Two people could not use the decent sized bathroom at the same time. We tried to get a room at the Comfort Inn next door but they were booked. I came home and disinfected our bags &amp; washed the clean clothing that we didn't wear. Never again.........ever!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +811,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +843,916 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_614.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r598652165-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>244389</t>
+  </si>
+  <si>
+    <t>598652165</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Studio 6</t>
+  </si>
+  <si>
+    <t>Staff was courteous, but the rooms were filthy. Water with dead mosquitoes in coffee maker, bathroom mirror so dirty it looked fogged up. Garbage was overflowing from every trash can. Oddly, the dumpster looked empty. I would not recommend unless you're so exhausted you're past the point of caring. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Studio 6 Houston Southwest - Sugarland, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Staff was courteous, but the rooms were filthy. Water with dead mosquitoes in coffee maker, bathroom mirror so dirty it looked fogged up. Garbage was overflowing from every trash can. Oddly, the dumpster looked empty. I would not recommend unless you're so exhausted you're past the point of caring. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r591743824-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>591743824</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great Customer Service = Great Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>This is a very well accommodating Business for extended stay and short term. The Value, quality, cleanliness and sleep comfort of rooms has been great. The personnel are very professional beginning with the General Manager. GM Clark and his Front desk, Gloria and Mark always make every attempt to satisfy the Customer. The Housekeeping and Maintenance crews are excellent and professional employees. The overall Property appearance and landscaping is always maintained.The location of this property is very accessible to Major Interstate 59/69 which feeds into all arteries to local Malls, Shops, Groceries Stores, Restaurants, fast foods and Entertainment activities. Being only 15 to 20 Minutes from The Galleria and all of Downtown Houston Activities also makes this an attractive place to stay. The Medical care and Facilities (Hospitals and Doctors) are only a few minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This is a very well accommodating Business for extended stay and short term. The Value, quality, cleanliness and sleep comfort of rooms has been great. The personnel are very professional beginning with the General Manager. GM Clark and his Front desk, Gloria and Mark always make every attempt to satisfy the Customer. The Housekeeping and Maintenance crews are excellent and professional employees. The overall Property appearance and landscaping is always maintained.The location of this property is very accessible to Major Interstate 59/69 which feeds into all arteries to local Malls, Shops, Groceries Stores, Restaurants, fast foods and Entertainment activities. Being only 15 to 20 Minutes from The Galleria and all of Downtown Houston Activities also makes this an attractive place to stay. The Medical care and Facilities (Hospitals and Doctors) are only a few minutes away.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r580607918-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>244389</t>
-  </si>
-  <si>
     <t>580607918</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r527902294-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
@@ -228,6 +279,48 @@
     <t>I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open...I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.I went here for a business trip and decided to stay here because of the price and because it was about 4 mins away from my meeting place. When I first checked in, my room had been changed from a king to a double by the attendant. The double room they tried to put me in smelled so strongly of urine I turned around as soon as I walked in. They put me in another room, and because it smelled better I thought it was cleaner. I had been on the road long, so I went to sleep pretty quickly. I woke up in the morning and looked around. The table nor the counters had been cleaned from the previous occupant and the tub wasn't the cleanest. Told the mgr and he comped the room. I was placed in another room. Just let me say I should've pulled the covers back before agreeing to sleep in it. When I  made it in around 12a.m. and was about to get in the bed, I pulled the covers back and there was dirt, crust, and hair in the bed. The room had roaches too. I was livid. The office closed at 8pm, and because it was 12 in the a.m. and I was 4 hrs away from home, I couldn't get up and leave. I will never go to this dump again. This place needs to be fumigated!! The office doesn't open until 12 on Sunday, so no one was there when I checked out. I went back after checking out, though, and Mark at the front desk said the mgr wasn't there. I called on yesterday and he said the manager Nicholas would call; however, he never did.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r260781283-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>260781283</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>5 Stars for the Money!</t>
+  </si>
+  <si>
+    <t>Staying here while searching for a nice rental in Stafford/Sugar Land. We tried to get in for almost 3 weeks but they were booked solid. I kept trying, and thanks to Gloria's excellent customer service we got our studio room. For the money I do not think you could find a nicer motel! Management, especially Darryl, is friendly and attentive. Everyone associated with Studio 6 here does a great job. We have a small dog and have had no issues. The other guests are for the most part friendly, and there is somewhat of a family camaraderie among the guests. I am more than pleased with our stay and would highly recommend this Studio 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Staying here while searching for a nice rental in Stafford/Sugar Land. We tried to get in for almost 3 weeks but they were booked solid. I kept trying, and thanks to Gloria's excellent customer service we got our studio room. For the money I do not think you could find a nicer motel! Management, especially Darryl, is friendly and attentive. Everyone associated with Studio 6 here does a great job. We have a small dog and have had no issues. The other guests are for the most part friendly, and there is somewhat of a family camaraderie among the guests. I am more than pleased with our stay and would highly recommend this Studio 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r223183906-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>223183906</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Bad Management</t>
+  </si>
+  <si>
+    <t>Made advance reservation. Called ahead to let the desk/Javier  know I would be arriving late.  Got there at 9:35. Office closed. Finally night guy opened door. Said my reservation was cancelled because credit card was declined. Funny, I used card for gas 30 minutes after leaving Studio 6 and it worked fine. Plus your competitor ran it and it working fine. I am a member. You also had my phone number. Javier did not call to tell me there was a problem. I could have confirmed card or gave another.  Night guy said he had a room at a higher rate. Would not honor my reservation price. I do not do business with companies who do not handle their customers with respect and honor their reservations. SorryMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Made advance reservation. Called ahead to let the desk/Javier  know I would be arriving late.  Got there at 9:35. Office closed. Finally night guy opened door. Said my reservation was cancelled because credit card was declined. Funny, I used card for gas 30 minutes after leaving Studio 6 and it worked fine. Plus your competitor ran it and it working fine. I am a member. You also had my phone number. Javier did not call to tell me there was a problem. I could have confirmed card or gave another.  Night guy said he had a room at a higher rate. Would not honor my reservation price. I do not do business with companies who do not handle their customers with respect and honor their reservations. SorryMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r215612974-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
@@ -264,9 +357,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r147274859-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
@@ -285,6 +375,39 @@
     <t>Basically it is what you should expect for what you pay. The room could have been cleaner. But when I travel I always bring my own linens and cleaner for the bathroom. It had a small kitchenette area that could come in handy for a person staying for a while. I was there for a night and the people were nice at the desk. The area worked well for me. We had friends in Richmond, and wanted to have fun in the galleria area. It was in the middle and the area was not sketchy. If you want something a little nicer, pay the extra 30 bucks a night for something more decent. Its a cheap motel. Do not expect a 5 star. My only complaint would be the smell coming from the a/c. Smelled of mildew. It was not pleasant.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r140370886-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140370886</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Keep driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had such a horrible experience that I will never stay in this hotel chain again.  First you have to run down the service personnel to get any help.  No towels for two days, would not fix furniture or stove both of which were broken and my three year old child was covered with bed big bites after staying there. There was obvious illegal activity that was happening at night.  The manager was rude and hateful when issues were addressed.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r137587724-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137587724</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Good staff responsive to a refrigerator problem.  The location in a southwest Houston neighborhood, is ideal for work in the technology corridor.  We felt safe here and it was close to some good restaurants.  We will return.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r124918247-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
@@ -342,6 +465,45 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r117950813-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117950813</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Would Recommend to My Friends!</t>
+  </si>
+  <si>
+    <t>I had a great experience.  The property was very clean and the manager was very helpful.  The rooms are small but adequate.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r117710540-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>117710540</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>good for the money</t>
+  </si>
+  <si>
+    <t>I was only here for one night, but the room was nice.  This is one of the less expensive hotels in the area.  They do not have breakfast, but for less than $50 what do you expect.  The office is not open all night and I had to call someone to check me in and he was very nice.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r116997647-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
   </si>
   <si>
@@ -397,6 +559,42 @@
   </si>
   <si>
     <t>OMG is all I can say.  The hotel manager should be ashamed of him/her self.  The outside of the hotel will trick you.  But be aware it is not what it looks like.  As soon as I opened the door I smelled a mixture of a thousand things and none were a pleasing smell.  I don't know how you can miss that someone took care of their business and forgot to flush twice but apparently the cleaning person did because I had to flush the toilet behind the previous person.  The room looked like it was about to cave in with a bed from 1976 when I was born.  I was scared to sit on the bed less known sleep in it.  Thank goodness the gentlemen at the front desk was polite enough to admit that its a shame that the rooms are in the condition they are in.  He refunded me my money back and I went next door to the Laquinta with a stomach ache.  By the way don't stay there either, they are next on my list.  I could not really eat for the remainder of the weekend.  Lets just say I would rather sleep on a pissy bus stop then to ever come back to this place and the answer to the next question.  NO I will not recommend this hotel to anyone...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r88295348-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>88295348</t>
+  </si>
+  <si>
+    <t>11/26/2010</t>
+  </si>
+  <si>
+    <t>Depressing/smelly</t>
+  </si>
+  <si>
+    <t>The outside of this accommodation was dreary and the inside worse. On opening the door we were hit by the strong smell. Not sure what it was - damp/cigarette smoke/insect repellent? The decor was old and shabby. A good attempt had been made to keep it clean but unfortunately there was one long hair in the sink and another on the toilet. After the first night I was covered in insect bites by morning. This was the first bad experience we have had accommodation wise in the US. Yes it was cheap, but if we'd known what it was going to be like we'd rather have paid more than have our holiday spoiled in this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>The outside of this accommodation was dreary and the inside worse. On opening the door we were hit by the strong smell. Not sure what it was - damp/cigarette smoke/insect repellent? The decor was old and shabby. A good attempt had been made to keep it clean but unfortunately there was one long hair in the sink and another on the toilet. After the first night I was covered in insect bites by morning. This was the first bad experience we have had accommodation wise in the US. Yes it was cheap, but if we'd known what it was going to be like we'd rather have paid more than have our holiday spoiled in this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r85430936-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>85430936</t>
+  </si>
+  <si>
+    <t>10/31/2010</t>
+  </si>
+  <si>
+    <t>Home when away from home</t>
+  </si>
+  <si>
+    <t>The family and I were very happy here. The crew and staff were very nice and helpfull. Good size room, good size bath room, good parking with well light parking lot. We stayed there while waiting for our house to finish. We were home while waiting for our home. Clean, safe and close up everything. Evan the other guest were friendly pepole. If I needed to, yes I would for sure hands down stay here again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d244389-r10921288-Studio_6_Houston_Southwest_Sugarland-Stafford_Texas.html</t>
@@ -952,7 +1150,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -960,25 +1158,23 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -994,7 +1190,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1003,32 +1199,32 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1039,7 +1235,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1055,7 +1251,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1064,41 +1260,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
         <v>69</v>
       </c>
@@ -1116,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1125,35 +1323,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1161,7 +1359,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1177,7 +1375,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1186,49 +1384,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1244,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1253,37 +1445,37 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1291,7 +1483,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -1307,7 +1499,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1316,38 +1508,30 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -1358,7 +1542,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1374,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1383,38 +1567,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>1</v>
@@ -1425,7 +1603,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1441,7 +1619,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1450,41 +1628,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1492,7 +1670,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1508,7 +1686,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1517,37 +1695,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1555,7 +1733,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1571,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1580,41 +1758,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>60</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1622,7 +1796,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1638,7 +1812,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1647,39 +1821,41 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1687,7 +1863,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1703,7 +1879,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1712,47 +1888,699 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31362</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
